--- a/cycif/v2.0.0/cycif-v2.0.0.xlsx
+++ b/cycif/v2.0.0/cycif-v2.0.0.xlsx
@@ -190,7 +190,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="681" uniqueCount="669">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="688" uniqueCount="675">
   <si>
     <t>parent_id</t>
   </si>
@@ -1566,6 +1566,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000195</t>
   </si>
   <si>
+    <t>nanoPOTS</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000246</t>
+  </si>
+  <si>
     <t>DESI</t>
   </si>
   <si>
@@ -1584,6 +1590,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000206</t>
   </si>
   <si>
+    <t>snATAC-seq</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000183</t>
+  </si>
+  <si>
     <t>Xenium</t>
   </si>
   <si>
@@ -1596,10 +1608,10 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000217</t>
   </si>
   <si>
-    <t>RNAseq (sc/sn)</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000213</t>
+    <t>scRNA-seq</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000248</t>
   </si>
   <si>
     <t>CosMx</t>
@@ -1650,6 +1662,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000160</t>
   </si>
   <si>
+    <t>snRNA-seq</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000184</t>
+  </si>
+  <si>
     <t>CyCIF</t>
   </si>
   <si>
@@ -1698,6 +1716,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000197</t>
   </si>
   <si>
+    <t>scATAC-seq</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000247</t>
+  </si>
+  <si>
     <t>Enhanced Stimulated Raman Spectroscopy (SRS)</t>
   </si>
   <si>
@@ -1716,12 +1740,6 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000221</t>
   </si>
   <si>
-    <t>ATACseq (sc/sn)</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000211</t>
-  </si>
-  <si>
     <t>LC-MS</t>
   </si>
   <si>
@@ -2190,7 +2208,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2023-08-03T09:16:59-07:00</t>
+    <t>2023-08-04T07:37:22-07:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>
@@ -2346,57 +2364,60 @@
         <v>455</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>522</v>
+        <v>528</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>545</v>
+        <v>551</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>549</v>
+        <v>555</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>578</v>
+        <v>584</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>639</v>
+        <v>645</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>640</v>
+        <v>646</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>651</v>
+        <v>657</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>652</v>
+        <v>658</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>653</v>
+        <v>659</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>654</v>
+        <v>660</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>655</v>
+        <v>661</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>656</v>
+        <v>662</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>657</v>
+        <v>663</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>658</v>
+        <v>664</v>
       </c>
       <c r="W1" t="s" s="1">
-        <v>659</v>
+        <v>665</v>
       </c>
       <c r="X1" t="s" s="1">
-        <v>660</v>
+        <v>666</v>
       </c>
     </row>
     <row r="2">
+      <c r="H2" t="s">
+        <v>492</v>
+      </c>
       <c r="X2" t="s">
-        <v>661</v>
+        <v>667</v>
       </c>
     </row>
   </sheetData>
@@ -2408,7 +2429,7 @@
       <formula1>'operator'!$A$1:$A$203</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="H2:H1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'dataset_type'!$A$1:$A$33</formula1>
+      <formula1>'dataset_type'!$A$1:$A$36</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="I2:I1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'analyte_class'!$A$1:$A$11</formula1>
@@ -2469,42 +2490,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>641</v>
+        <v>647</v>
       </c>
       <c r="B1" t="s">
-        <v>642</v>
+        <v>648</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>643</v>
+        <v>649</v>
       </c>
       <c r="B2" t="s">
-        <v>644</v>
+        <v>650</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>645</v>
+        <v>651</v>
       </c>
       <c r="B3" t="s">
-        <v>646</v>
+        <v>652</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>647</v>
+        <v>653</v>
       </c>
       <c r="B4" t="s">
-        <v>648</v>
+        <v>654</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>649</v>
+        <v>655</v>
       </c>
       <c r="B5" t="s">
-        <v>650</v>
+        <v>656</v>
       </c>
     </row>
   </sheetData>
@@ -2528,30 +2549,30 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>662</v>
+        <v>668</v>
       </c>
       <c r="B1" t="s">
-        <v>663</v>
+        <v>669</v>
       </c>
       <c r="C1" t="s">
-        <v>665</v>
+        <v>671</v>
       </c>
       <c r="D1" t="s">
-        <v>667</v>
+        <v>673</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>486</v>
+        <v>492</v>
       </c>
       <c r="B2" t="s">
-        <v>664</v>
+        <v>670</v>
       </c>
       <c r="C2" t="s">
-        <v>666</v>
+        <v>672</v>
       </c>
       <c r="D2" t="s">
-        <v>668</v>
+        <v>674</v>
       </c>
     </row>
   </sheetData>
@@ -4379,7 +4400,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B33"/>
+  <dimension ref="A1:B36"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4647,6 +4668,30 @@
       </c>
       <c r="B33" t="s">
         <v>521</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>522</v>
+      </c>
+      <c r="B34" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>524</v>
+      </c>
+      <c r="B35" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>526</v>
+      </c>
+      <c r="B36" t="s">
+        <v>527</v>
       </c>
     </row>
   </sheetData>
@@ -4664,90 +4709,90 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>523</v>
+        <v>529</v>
       </c>
       <c r="B1" t="s">
-        <v>524</v>
+        <v>530</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>525</v>
+        <v>531</v>
       </c>
       <c r="B2" t="s">
-        <v>526</v>
+        <v>532</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>527</v>
+        <v>533</v>
       </c>
       <c r="B3" t="s">
-        <v>528</v>
+        <v>534</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>529</v>
+        <v>535</v>
       </c>
       <c r="B4" t="s">
-        <v>530</v>
+        <v>536</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>531</v>
+        <v>537</v>
       </c>
       <c r="B5" t="s">
-        <v>532</v>
+        <v>538</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>533</v>
+        <v>539</v>
       </c>
       <c r="B6" t="s">
-        <v>534</v>
+        <v>540</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>535</v>
+        <v>541</v>
       </c>
       <c r="B7" t="s">
-        <v>536</v>
+        <v>542</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>537</v>
+        <v>543</v>
       </c>
       <c r="B8" t="s">
-        <v>538</v>
+        <v>544</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>539</v>
+        <v>545</v>
       </c>
       <c r="B9" t="s">
-        <v>540</v>
+        <v>546</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
       <c r="B10" t="s">
-        <v>542</v>
+        <v>548</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>543</v>
+        <v>549</v>
       </c>
       <c r="B11" t="s">
-        <v>544</v>
+        <v>550</v>
       </c>
     </row>
   </sheetData>
@@ -4765,18 +4810,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>546</v>
+        <v>552</v>
       </c>
       <c r="B1" t="s">
-        <v>547</v>
+        <v>553</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
       <c r="B2" t="s">
-        <v>547</v>
+        <v>553</v>
       </c>
     </row>
   </sheetData>
@@ -4794,114 +4839,114 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>550</v>
+        <v>556</v>
       </c>
       <c r="B1" t="s">
-        <v>551</v>
+        <v>557</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
       <c r="B2" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>554</v>
+        <v>560</v>
       </c>
       <c r="B3" t="s">
-        <v>555</v>
+        <v>561</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>556</v>
+        <v>562</v>
       </c>
       <c r="B4" t="s">
-        <v>557</v>
+        <v>563</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>558</v>
+        <v>564</v>
       </c>
       <c r="B5" t="s">
-        <v>559</v>
+        <v>565</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>560</v>
+        <v>566</v>
       </c>
       <c r="B6" t="s">
-        <v>561</v>
+        <v>567</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>562</v>
+        <v>568</v>
       </c>
       <c r="B7" t="s">
-        <v>563</v>
+        <v>569</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>564</v>
+        <v>570</v>
       </c>
       <c r="B8" t="s">
-        <v>565</v>
+        <v>571</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>566</v>
+        <v>572</v>
       </c>
       <c r="B9" t="s">
-        <v>567</v>
+        <v>573</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>568</v>
+        <v>574</v>
       </c>
       <c r="B10" t="s">
-        <v>569</v>
+        <v>575</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>570</v>
+        <v>576</v>
       </c>
       <c r="B11" t="s">
-        <v>571</v>
+        <v>577</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
       <c r="B12" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>574</v>
+        <v>580</v>
       </c>
       <c r="B13" t="s">
-        <v>575</v>
+        <v>581</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>576</v>
+        <v>582</v>
       </c>
       <c r="B14" t="s">
-        <v>577</v>
+        <v>583</v>
       </c>
     </row>
   </sheetData>
@@ -4919,242 +4964,242 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>579</v>
+        <v>585</v>
       </c>
       <c r="B1" t="s">
-        <v>580</v>
+        <v>586</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>581</v>
+        <v>587</v>
       </c>
       <c r="B2" t="s">
-        <v>582</v>
+        <v>588</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>583</v>
+        <v>589</v>
       </c>
       <c r="B3" t="s">
-        <v>584</v>
+        <v>590</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>585</v>
+        <v>591</v>
       </c>
       <c r="B4" t="s">
-        <v>586</v>
+        <v>592</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>587</v>
+        <v>593</v>
       </c>
       <c r="B5" t="s">
-        <v>588</v>
+        <v>594</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>589</v>
+        <v>595</v>
       </c>
       <c r="B6" t="s">
-        <v>590</v>
+        <v>596</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>591</v>
+        <v>597</v>
       </c>
       <c r="B7" t="s">
-        <v>592</v>
+        <v>598</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>593</v>
+        <v>599</v>
       </c>
       <c r="B8" t="s">
-        <v>594</v>
+        <v>600</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>595</v>
+        <v>601</v>
       </c>
       <c r="B9" t="s">
-        <v>596</v>
+        <v>602</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>597</v>
+        <v>603</v>
       </c>
       <c r="B10" t="s">
-        <v>598</v>
+        <v>604</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>599</v>
+        <v>605</v>
       </c>
       <c r="B11" t="s">
-        <v>600</v>
+        <v>606</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>601</v>
+        <v>607</v>
       </c>
       <c r="B12" t="s">
-        <v>602</v>
+        <v>608</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>603</v>
+        <v>609</v>
       </c>
       <c r="B13" t="s">
-        <v>604</v>
+        <v>610</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>605</v>
+        <v>611</v>
       </c>
       <c r="B14" t="s">
-        <v>606</v>
+        <v>612</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>607</v>
+        <v>613</v>
       </c>
       <c r="B15" t="s">
-        <v>608</v>
+        <v>614</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>609</v>
+        <v>615</v>
       </c>
       <c r="B16" t="s">
-        <v>610</v>
+        <v>616</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>611</v>
+        <v>617</v>
       </c>
       <c r="B17" t="s">
-        <v>612</v>
+        <v>618</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>613</v>
+        <v>619</v>
       </c>
       <c r="B18" t="s">
-        <v>614</v>
+        <v>620</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>615</v>
+        <v>621</v>
       </c>
       <c r="B19" t="s">
-        <v>616</v>
+        <v>622</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>617</v>
+        <v>623</v>
       </c>
       <c r="B20" t="s">
-        <v>618</v>
+        <v>624</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>619</v>
+        <v>625</v>
       </c>
       <c r="B21" t="s">
-        <v>620</v>
+        <v>626</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>621</v>
+        <v>627</v>
       </c>
       <c r="B22" t="s">
-        <v>622</v>
+        <v>628</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>623</v>
+        <v>629</v>
       </c>
       <c r="B23" t="s">
-        <v>624</v>
+        <v>630</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>625</v>
+        <v>631</v>
       </c>
       <c r="B24" t="s">
-        <v>626</v>
+        <v>632</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>627</v>
+        <v>633</v>
       </c>
       <c r="B25" t="s">
-        <v>628</v>
+        <v>634</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>629</v>
+        <v>635</v>
       </c>
       <c r="B26" t="s">
-        <v>630</v>
+        <v>636</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>631</v>
+        <v>637</v>
       </c>
       <c r="B27" t="s">
-        <v>632</v>
+        <v>638</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>633</v>
+        <v>639</v>
       </c>
       <c r="B28" t="s">
-        <v>634</v>
+        <v>640</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>635</v>
+        <v>641</v>
       </c>
       <c r="B29" t="s">
-        <v>636</v>
+        <v>642</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>637</v>
+        <v>643</v>
       </c>
       <c r="B30" t="s">
-        <v>638</v>
+        <v>644</v>
       </c>
     </row>
   </sheetData>
@@ -5172,42 +5217,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>641</v>
+        <v>647</v>
       </c>
       <c r="B1" t="s">
-        <v>642</v>
+        <v>648</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>643</v>
+        <v>649</v>
       </c>
       <c r="B2" t="s">
-        <v>644</v>
+        <v>650</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>645</v>
+        <v>651</v>
       </c>
       <c r="B3" t="s">
-        <v>646</v>
+        <v>652</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>647</v>
+        <v>653</v>
       </c>
       <c r="B4" t="s">
-        <v>648</v>
+        <v>654</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>649</v>
+        <v>655</v>
       </c>
       <c r="B5" t="s">
-        <v>650</v>
+        <v>656</v>
       </c>
     </row>
   </sheetData>

--- a/cycif/v2.0.0/cycif-v2.0.0.xlsx
+++ b/cycif/v2.0.0/cycif-v2.0.0.xlsx
@@ -2208,7 +2208,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2023-08-04T07:37:22-07:00</t>
+    <t>2023-08-11T13:13:14-07:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>
@@ -2443,33 +2443,33 @@
     <dataValidation type="list" sqref="L2:L1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'acquisition_instrument_model'!$A$1:$A$30</formula1>
     </dataValidation>
-    <dataValidation type="decimal" operator="greaterThan" sqref="M2:M1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
+    <dataValidation type="decimal" operator="greaterThanOrEqual" sqref="M2:M1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>0</formula1>
       <formula2/>
     </dataValidation>
     <dataValidation type="list" sqref="N2:N1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'source_storage_duration_unit'!$A$1:$A$5</formula1>
     </dataValidation>
-    <dataValidation type="decimal" operator="greaterThan" sqref="O2:O1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
+    <dataValidation type="decimal" operator="greaterThanOrEqual" sqref="O2:O1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>0</formula1>
       <formula2/>
     </dataValidation>
     <dataValidation type="list" sqref="P2:P1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'time_since_acquisition_instrument_calibration_unit'!$A$1:$A$5</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThan" sqref="S2:S1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
+    <dataValidation type="whole" operator="greaterThanOrEqual" sqref="S2:S1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>0</formula1>
       <formula2/>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThan" sqref="T2:T1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
+    <dataValidation type="whole" operator="greaterThanOrEqual" sqref="T2:T1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>0</formula1>
       <formula2/>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThan" sqref="U2:U1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
+    <dataValidation type="whole" operator="greaterThanOrEqual" sqref="U2:U1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>0</formula1>
       <formula2/>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThan" sqref="V2:V1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
+    <dataValidation type="whole" operator="greaterThanOrEqual" sqref="V2:V1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>0</formula1>
       <formula2/>
     </dataValidation>

--- a/cycif/v2.0.0/cycif-v2.0.0.xlsx
+++ b/cycif/v2.0.0/cycif-v2.0.0.xlsx
@@ -190,7 +190,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="688" uniqueCount="675">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="682" uniqueCount="673">
   <si>
     <t>parent_id</t>
   </si>
@@ -1809,12 +1809,6 @@
     <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C449</t>
   </si>
   <si>
-    <t>N-glycan</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/CHEBI_59520</t>
-  </si>
-  <si>
     <t>Endogenous fluorophores</t>
   </si>
   <si>
@@ -2208,7 +2202,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2023-08-11T13:13:14-07:00</t>
+    <t>2023-09-08T20:51:44-07:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>
@@ -2367,49 +2361,49 @@
         <v>528</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="O1" t="s" s="1">
+        <v>655</v>
+      </c>
+      <c r="P1" t="s" s="1">
+        <v>656</v>
+      </c>
+      <c r="Q1" t="s" s="1">
         <v>657</v>
       </c>
-      <c r="P1" t="s" s="1">
+      <c r="R1" t="s" s="1">
         <v>658</v>
       </c>
-      <c r="Q1" t="s" s="1">
+      <c r="S1" t="s" s="1">
         <v>659</v>
       </c>
-      <c r="R1" t="s" s="1">
+      <c r="T1" t="s" s="1">
         <v>660</v>
       </c>
-      <c r="S1" t="s" s="1">
+      <c r="U1" t="s" s="1">
         <v>661</v>
       </c>
-      <c r="T1" t="s" s="1">
+      <c r="V1" t="s" s="1">
         <v>662</v>
       </c>
-      <c r="U1" t="s" s="1">
+      <c r="W1" t="s" s="1">
         <v>663</v>
       </c>
-      <c r="V1" t="s" s="1">
+      <c r="X1" t="s" s="1">
         <v>664</v>
-      </c>
-      <c r="W1" t="s" s="1">
-        <v>665</v>
-      </c>
-      <c r="X1" t="s" s="1">
-        <v>666</v>
       </c>
     </row>
     <row r="2">
@@ -2417,7 +2411,7 @@
         <v>492</v>
       </c>
       <c r="X2" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
     </row>
   </sheetData>
@@ -2432,7 +2426,7 @@
       <formula1>'dataset_type'!$A$1:$A$36</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="I2:I1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'analyte_class'!$A$1:$A$11</formula1>
+      <formula1>'analyte_class'!$A$1:$A$10</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="J2:J1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'is_targeted'!$A$1:$A$2</formula1>
@@ -2455,7 +2449,7 @@
       <formula2/>
     </dataValidation>
     <dataValidation type="list" sqref="P2:P1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'time_since_acquisition_instrument_calibration_unit'!$A$1:$A$5</formula1>
+      <formula1>'time_since_acquisition_instrument_calibration_unit'!$A$1:$A$3</formula1>
     </dataValidation>
     <dataValidation type="whole" operator="greaterThanOrEqual" sqref="S2:S1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>0</formula1>
@@ -2482,7 +2476,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2510,22 +2504,6 @@
       </c>
       <c r="B3" t="s">
         <v>652</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>653</v>
-      </c>
-      <c r="B4" t="s">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>655</v>
-      </c>
-      <c r="B5" t="s">
-        <v>656</v>
       </c>
     </row>
   </sheetData>
@@ -2549,16 +2527,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="B1" t="s">
+        <v>667</v>
+      </c>
+      <c r="C1" t="s">
         <v>669</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>671</v>
-      </c>
-      <c r="D1" t="s">
-        <v>673</v>
       </c>
     </row>
     <row r="2">
@@ -2566,13 +2544,13 @@
         <v>492</v>
       </c>
       <c r="B2" t="s">
+        <v>668</v>
+      </c>
+      <c r="C2" t="s">
         <v>670</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>672</v>
-      </c>
-      <c r="D2" t="s">
-        <v>674</v>
       </c>
     </row>
   </sheetData>
@@ -4701,7 +4679,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4785,14 +4763,6 @@
       </c>
       <c r="B10" t="s">
         <v>548</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s">
-        <v>549</v>
-      </c>
-      <c r="B11" t="s">
-        <v>550</v>
       </c>
     </row>
   </sheetData>
@@ -4810,18 +4780,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="B1" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="B2" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
     </row>
   </sheetData>
@@ -4839,114 +4809,114 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="B1" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="B2" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="B3" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="B4" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B5" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="B6" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="B7" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="B8" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="B9" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="B10" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="B11" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="B12" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="B13" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="B14" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
     </row>
   </sheetData>
@@ -4964,242 +4934,242 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="B1" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="B2" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="B3" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="B4" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="B5" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="B6" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="B7" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="B8" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="B9" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="B10" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="B11" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="B12" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="B13" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="B14" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="B15" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="B16" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="B17" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="B18" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="B19" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="B20" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B21" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="B22" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="B23" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="B24" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="B25" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="B26" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="B27" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="B28" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="B29" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="B30" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
     </row>
   </sheetData>
@@ -5217,42 +5187,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="B1" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="B2" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="B3" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="B4" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="B5" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
     </row>
   </sheetData>
